--- a/RPA/Reportes/Reporte_2025-10-30.xlsx
+++ b/RPA/Reportes/Reporte_2025-10-30.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5535" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="109">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Your perfect pack for everyday use and walks in the forest. Stash your laptop (up to 15 inches) in the padded sleeve, your everyday</t>
   </si>
   <si>
-    <t xml:space="preserve">10/30/2025 12:00:04 AM</t>
+    <t xml:space="preserve">10/30/2025 11:03:23 PM</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -328,130 +328,25 @@
     <t xml:space="preserve">26.286667</t>
   </si>
   <si>
-    <t xml:space="preserve">10/30/2025 12:01:53 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:03:32 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 10:35:40 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 11:03:48 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 11:04:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 11:21:48 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:28:18 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:29:17 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:29:18 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:33:52 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:34:20 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:46:12 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:47:59 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:48:47 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 12:53:14 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:06:38 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:09:21 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:13:34 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:20:48 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:21:17 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:22:19 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:22:41 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:29:53 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:31:42 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:41:20 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:43:06 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:43:07 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 1:46:15 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:14:04 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:14:37 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:15:19 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:18:16 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:19:56 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:22:13 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:23:20 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:26:38 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:51:03 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:52:13 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:52:14 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 4:52:38 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 6:20:07 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/30/2025 6:25:12 PM</t>
+    <t xml:space="preserve">10/30/2025 11:19:33 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/30/2025 11:19:34 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/30/2025 11:19:59 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/30/2025 11:20:07 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/30/2025 11:24:03 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/30/2025 11:28:46 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/30/2025 11:31:37 PM</t>
   </si>
 </sst>
 </file>
@@ -858,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G2"/>
     </row>
@@ -879,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G3"/>
     </row>
@@ -900,7 +795,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G4"/>
     </row>
@@ -921,7 +816,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G5"/>
     </row>
@@ -942,7 +837,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G6"/>
     </row>
@@ -963,7 +858,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G7"/>
     </row>
@@ -984,7 +879,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G8"/>
     </row>
@@ -1005,7 +900,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G9"/>
     </row>
@@ -1026,7 +921,7 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G10"/>
     </row>
@@ -1047,7 +942,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G11"/>
     </row>
@@ -1068,7 +963,7 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G12"/>
     </row>
@@ -1089,7 +984,7 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G13"/>
     </row>
@@ -1110,7 +1005,7 @@
         <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G14"/>
     </row>
@@ -1131,7 +1026,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G15"/>
     </row>
@@ -1152,7 +1047,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G16"/>
     </row>
@@ -1173,7 +1068,7 @@
         <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G17"/>
     </row>
@@ -1194,7 +1089,7 @@
         <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G18"/>
     </row>
@@ -1215,7 +1110,7 @@
         <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G19"/>
     </row>
@@ -1236,7 +1131,7 @@
         <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G20"/>
     </row>
@@ -1257,7 +1152,7 @@
         <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G21"/>
     </row>
